--- a/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
+++ b/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="131">
   <si>
     <t>创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,66 @@
   </si>
   <si>
     <t>可以设置todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复B 未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复B'未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复B'未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复B' 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复C' 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复C 未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复C'未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复F 未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复F'未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2181,13 +2241,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q58"/>
+  <dimension ref="A2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
@@ -2198,10 +2258,17 @@
     <col min="7" max="7" width="14.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="20" width="9" style="2"/>
+    <col min="21" max="22" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.5" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9" style="2"/>
+    <col min="27" max="28" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="2"/>
+    <col min="30" max="30" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2233,7 +2300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2262,7 +2329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C4" s="4">
         <v>43702</v>
       </c>
@@ -2291,7 +2358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
@@ -2326,7 +2393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
         <v>80</v>
       </c>
@@ -2358,7 +2425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
@@ -2393,7 +2460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
@@ -2424,8 +2491,14 @@
       <c r="Q8" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AB8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
@@ -2462,8 +2535,26 @@
       <c r="Q9" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="V9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>43707</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
@@ -2503,8 +2594,32 @@
       <c r="Q10" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S10" s="4">
+        <v>43708</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>43708</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>77</v>
       </c>
@@ -2541,8 +2656,35 @@
       <c r="Q11" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S11" s="4">
+        <v>43709</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>43709</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
@@ -2579,8 +2721,32 @@
       <c r="Q12" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S12" s="4">
+        <v>43710</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>43710</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>79</v>
       </c>
@@ -2620,8 +2786,33 @@
       <c r="Q13" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S13" s="4">
+        <v>43711</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>43711</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -2656,8 +2847,20 @@
       <c r="Q14" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S14" s="4">
+        <v>43712</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -2702,8 +2905,38 @@
       <c r="Q15" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2745,8 +2978,32 @@
       <c r="Q16" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S16" s="13">
+        <v>43714</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>43714</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2787,8 +3044,32 @@
       <c r="Q17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="S17" s="13">
+        <v>43715</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>43715</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2809,7 +3090,7 @@
         <v>112</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>62</v>
@@ -2829,8 +3110,20 @@
       <c r="Q18" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Y18" s="13">
+        <v>43716</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>115</v>
       </c>
@@ -2870,8 +3163,20 @@
       <c r="Q19" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Y19" s="13">
+        <v>43717</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -2890,8 +3195,20 @@
       <c r="G20" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Y20" s="13">
+        <v>43718</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD20" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
@@ -2907,8 +3224,20 @@
       <c r="G21" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Y21" s="13">
+        <v>43719</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2924,8 +3253,20 @@
       <c r="G22" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="Y22" s="13">
+        <v>43720</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2939,7 +3280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C24" s="13">
         <v>43722</v>
       </c>
@@ -2950,7 +3291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C25" s="13">
         <v>43723</v>
       </c>
@@ -2961,7 +3302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C26" s="13">
         <v>43724</v>
       </c>
@@ -2972,7 +3313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C27" s="13">
         <v>43725</v>
       </c>
@@ -2983,7 +3324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C28" s="13">
         <v>43726</v>
       </c>
@@ -2991,7 +3332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C29" s="13">
         <v>43727</v>
       </c>
@@ -2999,8 +3340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="I32" s="2" t="s">
         <v>87</v>
       </c>
@@ -3061,7 +3401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4">
         <v>43702</v>
       </c>
@@ -3090,7 +3430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
@@ -3125,7 +3465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -3157,7 +3497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
@@ -3192,7 +3532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
@@ -3224,7 +3564,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
@@ -3262,7 +3602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
@@ -3303,7 +3643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
@@ -3341,7 +3681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
@@ -3379,7 +3719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
@@ -3420,7 +3760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
@@ -3456,7 +3796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>81</v>
       </c>
@@ -3502,7 +3842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -3545,7 +3885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
@@ -3629,7 +3969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>115</v>
       </c>
@@ -3670,7 +4010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
@@ -3690,7 +4030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
@@ -3707,7 +4047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3724,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
@@ -3738,7 +4078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C53" s="13">
         <v>43722</v>
       </c>
@@ -3749,7 +4089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C54" s="13">
         <v>43723</v>
       </c>
@@ -3760,7 +4100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C55" s="13">
         <v>43724</v>
       </c>
@@ -3771,7 +4111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C56" s="13">
         <v>43725</v>
       </c>
@@ -3782,7 +4122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C57" s="13">
         <v>43726</v>
       </c>
@@ -3790,7 +4130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C58" s="13">
         <v>43727</v>
       </c>

--- a/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
+++ b/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="151">
   <si>
     <t>创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,12 +565,92 @@
     <t>重复F'未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复日程A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复日程B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复日程C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程AA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程CA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程BA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todolist结果应该是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下所有日程都设置了todolist，都是未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6 重复日程AA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6 不重复日程A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天 不重复日程B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/20 不重复日程C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程BA' 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/12 重复日程BA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程AA' 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复日程CA 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/18 重复日程CA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +699,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -665,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +835,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2243,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4218,4 +4344,278 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G3:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G5" s="22">
+        <v>43708</v>
+      </c>
+      <c r="O5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G6" s="22">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G7" s="22">
+        <v>43710</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G8" s="22">
+        <v>43711</v>
+      </c>
+      <c r="J8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G9" s="22">
+        <v>43712</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G10" s="22">
+        <v>43713</v>
+      </c>
+      <c r="J10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G11" s="22">
+        <v>43714</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="O11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G12" s="22">
+        <v>43715</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G13" s="22">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G14" s="22">
+        <v>43717</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.15">
+      <c r="G15" s="22">
+        <v>43718</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G17" s="22">
+        <v>43720</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G18" s="22">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G19" s="22">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G20" s="22">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G21" s="22">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G22" s="22">
+        <v>43725</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G23" s="22">
+        <v>43726</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G24" s="22">
+        <v>43727</v>
+      </c>
+      <c r="J24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G25" s="22">
+        <v>43728</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G26" s="22">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G27" s="22">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G28" s="22">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G29" s="22">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G30" s="22">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G31" s="22">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G32" s="22">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="22">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="22">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="22">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="22">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="22">
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="22">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="22">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="22">
+        <v>43743</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
+++ b/A-开发相关文档素材/6.二期文档/需求讨论文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="日程保存" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="164">
   <si>
     <t>创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,6 +644,58 @@
   </si>
   <si>
     <t>9/18 重复日程CA'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除并创建新日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复第一条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4350,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4618,4 +4671,135 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>